--- a/leaderboard.xlsx
+++ b/leaderboard.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kkviks/Desktop/Files/Code/VSCode/OS_TA/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\os_judge\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9B281878-BE98-CE4F-B2B7-83B5CA7C83E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9A1BD36-8243-4FA4-ADF5-61169E23781C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="15820" xr2:uid="{44D7003B-3799-9D45-B564-F94F2638FEA3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{44D7003B-3799-9D45-B564-F94F2638FEA3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,9 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -34,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Rank</t>
   </si>
@@ -42,7 +40,10 @@
     <t>Group</t>
   </si>
   <si>
-    <t>Time(ms)</t>
+    <t>2018B3A70847H</t>
+  </si>
+  <si>
+    <t>Time</t>
   </si>
 </sst>
 </file>
@@ -394,18 +395,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B08FAE68-15BD-C145-86B6-46A22C8FDDA5}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="21.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -413,7 +414,18 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>2</v>
+      </c>
+      <c r="C2">
+        <v>0.55000000000000004</v>
       </c>
     </row>
   </sheetData>

--- a/leaderboard.xlsx
+++ b/leaderboard.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\os_judge\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kkviks/Desktop/Files/Code/VSCode/OS_TA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9A1BD36-8243-4FA4-ADF5-61169E23781C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05F0610F-7366-9441-AAB5-AE5D9ED4E5BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{44D7003B-3799-9D45-B564-F94F2638FEA3}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15780" xr2:uid="{44D7003B-3799-9D45-B564-F94F2638FEA3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,10 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>Rank</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Group</t>
   </si>
@@ -395,36 +392,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B08FAE68-15BD-C145-86B6-46A22C8FDDA5}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="21.5" customWidth="1"/>
+    <col min="1" max="1" width="21.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2">
+      <c r="B2">
         <v>0.55000000000000004</v>
       </c>
     </row>
